--- a/Assignments/HW1_BoxModel_Excel/Starter_Code/1D ss satd.xlsx
+++ b/Assignments/HW1_BoxModel_Excel/Starter_Code/1D ss satd.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Documents/Teaching/Groundwater_Modeling/HWRS582_Spring22/Git_Course-Materials22/Assignments/HW1_BoxModel_Excel/Starter_Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA7D5E2-36CE-CC4E-BD6D-C04978DD9224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8786C6-777E-6A42-B878-51F1B241E14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29260" windowHeight="18420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="760" windowWidth="29200" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs" sheetId="2" r:id="rId1"/>
     <sheet name="model and key plot" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -509,37 +509,37 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91.670554851643914</c:v>
+                  <c:v>94.592080577586103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83.340588785280644</c:v>
+                  <c:v>89.184522549972243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.00991113168368</c:v>
+                  <c:v>83.777454663358</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.678391661347746</c:v>
+                  <c:v>78.370961180827933</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58.345965259518394</c:v>
+                  <c:v>72.965079023127814</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50.012631926192974</c:v>
+                  <c:v>64.856874572392442</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.678452414260022</c:v>
+                  <c:v>54.046518847691296</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>33.343540090155543</c:v>
+                  <c:v>43.236672013469864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.008049815312411</c:v>
+                  <c:v>32.427228205985386</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>16.672164792773525</c:v>
+                  <c:v>21.618060202617919</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.3360823963867627</c:v>
+                  <c:v>10.809030101308959</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -873,40 +873,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="1">
-                  <c:v>6.6635561186848685E-4</c:v>
+                  <c:v>2.1631677689655588E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.6639728530906153E-4</c:v>
+                  <c:v>2.1630232110455436E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6645421228775717E-4</c:v>
+                  <c:v>2.1628271546456971E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6652155762687469E-4</c:v>
+                  <c:v>2.1625973930120269E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.6659411214634815E-4</c:v>
+                  <c:v>2.1623528630800477E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.6666666666603358E-4</c:v>
+                  <c:v>2.1621878535294323E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.6673436095463618E-4</c:v>
+                  <c:v>2.1620711449402294E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.6679298592835841E-4</c:v>
+                  <c:v>2.1619693668442866E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6683922198745047E-4</c:v>
+                  <c:v>2.1618887614968954E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.6687080180311085E-4</c:v>
+                  <c:v>2.1618336006734937E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.6688659171094098E-4</c:v>
+                  <c:v>2.1618060202617917E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.6688659171094098E-4</c:v>
+                  <c:v>2.1618060202617917E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1748,7 +1748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B4:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1814,7 +1814,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.15">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="E16" s="1">
         <f>IF(D16=1,+$D$11,+IF(D16=2,+$D$12,+$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.15">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" ref="E17:E28" si="0">IF(D17=1,+$D$11,+IF(D17=2,+$D$12,+$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.15">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.15">
@@ -1880,7 +1880,7 @@
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.15">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.15">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.15">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.15">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>4.0000000000000002E-4</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.15">
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2081,11 +2081,12 @@
         <v>28</v>
       </c>
       <c r="C7" s="6">
-        <v>4.0000000000000002E-4</v>
+        <f>inputs!D11</f>
+        <v>0.02</v>
       </c>
       <c r="D7" s="7">
         <f>SUM(L9:L19)+0.5*(L8+L20)</f>
-        <v>12</v>
+        <v>5.5</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2106,11 +2107,12 @@
         <v>29</v>
       </c>
       <c r="C8" s="6">
+        <f>inputs!D12</f>
         <v>0.01</v>
       </c>
       <c r="D8" s="7">
         <f>SUM(M9:M19)+0.5*(M8+M20)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="F8" s="1">
         <f>F9+inputs!$D$8</f>
@@ -2122,7 +2124,7 @@
       </c>
       <c r="H8" s="1">
         <f>IF(G8=1,+inputs!$D$11,+IF(G8=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.02</v>
       </c>
       <c r="I8" s="2">
         <f>inputs!D4</f>
@@ -2157,6 +2159,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="6">
+        <f>inputs!D13</f>
         <v>1E-4</v>
       </c>
       <c r="D9" s="7">
@@ -2173,15 +2176,15 @@
       </c>
       <c r="H9" s="1">
         <f>IF(G9=1,+inputs!$D$11,+IF(G9=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.02</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9:I19" ca="1" si="0">(I8*2/(1/H8+1/H9)+I10*2/(1/H9+1/H10))/(2/(1/H8+1/H9)+2/(1/H9+1/H10))</f>
-        <v>91.670554851643914</v>
+        <v>94.592080577586103</v>
       </c>
       <c r="J9" s="1">
         <f ca="1">(I8-I9)/inputs!$D$8*2/(1/H8+1/H9)</f>
-        <v>6.6635561186848685E-4</v>
+        <v>2.1631677689655588E-2</v>
       </c>
       <c r="L9">
         <f t="shared" ref="L9:L20" si="1">IF($G9=1,1,0)</f>
@@ -2220,15 +2223,15 @@
       </c>
       <c r="H10" s="1">
         <f>IF(G10=1,+inputs!$D$11,+IF(G10=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.02</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>83.340588785280644</v>
+        <v>89.184522549972243</v>
       </c>
       <c r="J10" s="1">
         <f ca="1">(I9-I10)/inputs!$D$8*2/(1/H9+1/H10)</f>
-        <v>6.6639728530906153E-4</v>
+        <v>2.1630232110455436E-2</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
@@ -2259,7 +2262,7 @@
       </c>
       <c r="C11" s="6">
         <f>SUM(D7:D9)/(D7/C7+D8/C8+D9/C9)</f>
-        <v>4.0000000000000002E-4</v>
+        <v>1.2972972972972972E-2</v>
       </c>
       <c r="D11" s="7"/>
       <c r="F11" s="1">
@@ -2272,15 +2275,15 @@
       </c>
       <c r="H11" s="1">
         <f>IF(G11=1,+inputs!$D$11,+IF(G11=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.02</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>75.00991113168368</v>
+        <v>83.777454663358</v>
       </c>
       <c r="J11" s="1">
         <f ca="1">(I10-I11)/inputs!$D$8*2/(1/H10+1/H11)</f>
-        <v>6.6645421228775717E-4</v>
+        <v>2.1628271546456971E-2</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
@@ -2311,7 +2314,7 @@
       </c>
       <c r="C12" s="9">
         <f>C11*(I8-I20)/(F8-F20)</f>
-        <v>6.6666666666666664E-4</v>
+        <v>2.1621621621621619E-2</v>
       </c>
       <c r="D12" s="10"/>
       <c r="F12" s="1">
@@ -2324,15 +2327,15 @@
       </c>
       <c r="H12" s="1">
         <f>IF(G12=1,+inputs!$D$11,+IF(G12=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.02</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>66.678391661347746</v>
+        <v>78.370961180827933</v>
       </c>
       <c r="J12" s="1">
         <f ca="1">(I11-I12)/inputs!$D$8*2/(1/H11+1/H12)</f>
-        <v>6.6652155762687469E-4</v>
+        <v>2.1625973930120269E-2</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
@@ -2368,15 +2371,15 @@
       </c>
       <c r="H13" s="1">
         <f>IF(G13=1,+inputs!$D$11,+IF(G13=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.02</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>58.345965259518394</v>
+        <v>72.965079023127814</v>
       </c>
       <c r="J13" s="1">
         <f ca="1">(I12-I13)/inputs!$D$8*2/(1/H12+1/H13)</f>
-        <v>6.6659411214634815E-4</v>
+        <v>2.1623528630800477E-2</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
@@ -2407,28 +2410,27 @@
         <v>30</v>
       </c>
       <c r="G14" s="1">
-        <f>inputs!D22</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="1">
         <f>IF(G14=1,+inputs!$D$11,+IF(G14=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>50.012631926192974</v>
+        <v>64.856874572392442</v>
       </c>
       <c r="J14" s="1">
         <f ca="1">(I13-I14)/inputs!$D$8*2/(1/H13+1/H14)</f>
-        <v>6.6666666666603358E-4</v>
+        <v>2.1621878535294323E-2</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
@@ -2451,28 +2453,27 @@
         <v>25</v>
       </c>
       <c r="G15" s="1">
-        <f>inputs!D23</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="1">
         <f>IF(G15=1,+inputs!$D$11,+IF(G15=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41.678452414260022</v>
+        <v>54.046518847691296</v>
       </c>
       <c r="J15" s="1">
         <f ca="1">(I14-I15)/inputs!$D$8*2/(1/H14+1/H15)</f>
-        <v>6.6673436095463618E-4</v>
+        <v>2.1620711449402294E-2</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
@@ -2495,27 +2496,27 @@
         <v>20</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="1">
         <f>IF(G16=1,+inputs!$D$11,+IF(G16=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>33.343540090155543</v>
+        <v>43.236672013469864</v>
       </c>
       <c r="J16" s="1">
         <f ca="1">(I15-I16)/inputs!$D$8*2/(1/H15+1/H16)</f>
-        <v>6.6679298592835841E-4</v>
+        <v>2.1619693668442866E-2</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
@@ -2538,27 +2539,27 @@
         <v>15</v>
       </c>
       <c r="G17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="1">
         <f>IF(G17=1,+inputs!$D$11,+IF(G17=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>25.008049815312411</v>
+        <v>32.427228205985386</v>
       </c>
       <c r="J17" s="1">
         <f ca="1">(I16-I17)/inputs!$D$8*2/(1/H16+1/H17)</f>
-        <v>6.6683922198745047E-4</v>
+        <v>2.1618887614968954E-2</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
@@ -2581,27 +2582,27 @@
         <v>10</v>
       </c>
       <c r="G18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" s="1">
         <f>IF(G18=1,+inputs!$D$11,+IF(G18=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>16.672164792773525</v>
+        <v>21.618060202617919</v>
       </c>
       <c r="J18" s="1">
         <f ca="1">(I17-I18)/inputs!$D$8*2/(1/H17+1/H18)</f>
-        <v>6.6687080180311085E-4</v>
+        <v>2.1618336006734937E-2</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
@@ -2624,27 +2625,27 @@
         <v>5</v>
       </c>
       <c r="G19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19" s="1">
         <f>IF(G19=1,+inputs!$D$11,+IF(G19=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3360823963867627</v>
+        <v>10.809030101308959</v>
       </c>
       <c r="J19" s="1">
         <f ca="1">(I18-I19)/inputs!$D$8*2/(1/H18+1/H19)</f>
-        <v>6.6688659171094098E-4</v>
+        <v>2.1618060202617917E-2</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
@@ -2667,11 +2668,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" s="1">
         <f>IF(G20=1,+inputs!$D$11,+IF(G20=2,+inputs!$D$12,+inputs!$D$13))</f>
-        <v>4.0000000000000002E-4</v>
+        <v>0.01</v>
       </c>
       <c r="I20" s="2">
         <f>inputs!D5</f>
@@ -2679,15 +2680,15 @@
       </c>
       <c r="J20" s="1">
         <f ca="1">(I19-I20)/inputs!$D$8*2/(1/H19+1/H20)</f>
-        <v>6.6688659171094098E-4</v>
+        <v>2.1618060202617917E-2</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
         <f t="shared" si="3"/>
